--- a/com.moneycontrol/src/test/resources/TestData.xlsx
+++ b/com.moneycontrol/src/test/resources/TestData.xlsx
@@ -3,21 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\com.moneycontrol\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9655BCDF-D0EE-4A96-9565-A68CCAFED33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{99E46E3D-5494-440C-A58A-44658CB8A97C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29100" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Company</t>
   </si>
@@ -36,24 +32,14 @@
     <t>Vedanta</t>
   </si>
   <si>
-    <t>Tata Motors</t>
-  </si>
-  <si>
-    <t>308.95</t>
-  </si>
-  <si>
     <t>280.85</t>
-  </si>
-  <si>
-    <t>334.95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,13 +353,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.05859375" collapsed="true"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -389,17 +375,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
